--- a/bin/Debug/ExcelBackup/201707-20170804.xlsx
+++ b/bin/Debug/ExcelBackup/201707-20170804.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ML" sheetId="1" r:id="rId1"/>
-    <sheet name="RO1" sheetId="2" r:id="rId3"/>
-    <sheet name="ROWEB" sheetId="3" r:id="rId4"/>
+    <sheet name="夢幻龍族Online" sheetId="1" r:id="rId1"/>
+    <sheet name="RO仙境傳說Online" sheetId="2" r:id="rId3"/>
+    <sheet name="RO仙境傳說Web" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
